--- a/medicine/Pharmacie/Tréprostinil/Tréprostinil.xlsx
+++ b/medicine/Pharmacie/Tréprostinil/Tréprostinil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tr%C3%A9prostinil</t>
+          <t>Tréprostinil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le trépostinil est une molécule, analogue synthétique de la prostacycline, en cours de développement comme médicament pour le traitement de l'hypertension artérielle pulmonaire.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tr%C3%A9prostinil</t>
+          <t>Tréprostinil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un analogue de la prostacycline. Il est également agoniste de différents récepteurs aux prostaglandines (DP1 et EP2)[1], ce qui le distingue de l'iloprost.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un analogue de la prostacycline. Il est également agoniste de différents récepteurs aux prostaglandines (DP1 et EP2), ce qui le distingue de l'iloprost.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tr%C3%A9prostinil</t>
+          <t>Tréprostinil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Évaluation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Utilisé par injection sous-cutanée, il améliore les symptômes et les paramètres hémodynamiques[2]. Il peut être également utilisé par perfusion intra-veineuse[3] ou en aérosol[4].
-Une forme orale donne des résultats semblables[5]. 
-Donné en aérosol dans les hypertensions artérielles pulmonaires, qu'elles soient primitives[6], secondaires à une insuffisance respiratoire[7], ou même, dans le cadre d'une pneumopathie interstitielle diffuse idiopathique[8], il permet d'augmenter la capacité à l'effort.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Utilisé par injection sous-cutanée, il améliore les symptômes et les paramètres hémodynamiques. Il peut être également utilisé par perfusion intra-veineuse ou en aérosol.
+Une forme orale donne des résultats semblables. 
+Donné en aérosol dans les hypertensions artérielles pulmonaires, qu'elles soient primitives, secondaires à une insuffisance respiratoire, ou même, dans le cadre d'une pneumopathie interstitielle diffuse idiopathique, il permet d'augmenter la capacité à l'effort.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tr%C3%A9prostinil</t>
+          <t>Tréprostinil</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La voie sous-cutanée peut être douloureuse[2]. La forme orale est bien tolérée, les effets secondaires les plus fréquents étant les céphalées, les nausées, une diarrhée, une douleur des mâchoires[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La voie sous-cutanée peut être douloureuse. La forme orale est bien tolérée, les effets secondaires les plus fréquents étant les céphalées, les nausées, une diarrhée, une douleur des mâchoires.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tr%C3%A9prostinil</t>
+          <t>Tréprostinil</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Autres analogues de la prostacycline</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'iloprost et l'époprosténol sont deux autres analogues de la prostacyline utilisés dans l'hypertension artérielle pulmonaire.  Le premier s'administre par aérosol, le second par perfusion intra-veineuse.
 </t>
